--- a/biology/Botanique/Erysimum_cheiranthoides/Erysimum_cheiranthoides.xlsx
+++ b/biology/Botanique/Erysimum_cheiranthoides/Erysimum_cheiranthoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erysimum cheiranthoides
 Le Vélar fausse giroflée (Erysimum cheiranthoides) est une plante de la famille des Brassicacées.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Organes reproducteurs
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Organes reproducteurs
 Couleur dominante des fleurs : jaune
 Période de floraison : juin-octobre
 Inflorescence : racème simple
@@ -526,10 +543,44 @@
 Dissémination : barochore
 Habitat et répartition
 Habitat type : friches annuelles hygrophiles eutrophiles pionnières, eurasiatiques.
-Aire de répartition : holarctique
-Comestibilité
-Les plantes de la famille des brassicacées sont pour la plupart comestibles. Toutefois, le vélar fausse giroflée est l'une des deux brassicacées toxiques que nous pouvons rencontrer en France, avec le Giroflée (Cheiranthus cheiri L.). Il peut provoquer des troubles digestifs et cardiaques[1].
-De manière générale, les brassicacées ne doivent pas être ramassées dans des endroits pollués. La présence de soufre fait qu'elles ne sont pas mycorhizables et filtrent mal les pollutions[2],[3].
+Aire de répartition : holarctique</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Erysimum_cheiranthoides</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erysimum_cheiranthoides</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Comestibilité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes de la famille des brassicacées sont pour la plupart comestibles. Toutefois, le vélar fausse giroflée est l'une des deux brassicacées toxiques que nous pouvons rencontrer en France, avec le Giroflée (Cheiranthus cheiri L.). Il peut provoquer des troubles digestifs et cardiaques.
+De manière générale, les brassicacées ne doivent pas être ramassées dans des endroits pollués. La présence de soufre fait qu'elles ne sont pas mycorhizables et filtrent mal les pollutions,.
 données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
 </t>
         </is>
